--- a/biology/Botanique/Coryphoideae/Coryphoideae.xlsx
+++ b/biology/Botanique/Coryphoideae/Coryphoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Coryphoideae sont l'une des cinq sous-familles de palmiers, Arecaceae[2],[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Coryphoideae sont l'une des cinq sous-familles de palmiers, Arecaceae,. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille de palmiers contient presque tous les genres avec des feuilles palmées , à l'exception de Mauritia, Mauritiella et Lepidocaryum, tous de la sous-famille des Calamoideae, tribu des Lepidocaryeae, sous-tribu des Mauritiinae[4],[5]. Cependant, tous les feuilles de palmier  « Coryphoidées » sont indupliquées (en forme de V)  (à l'exception de Guihaia), tandis que les palmiers de type « Calamoidées »  ont des feuilles redupliquées (en forme de V inversé, soit en &lt;A&gt;) . Des feuilles  pennées ne se trouvent  chez les Coryphoideae, pour Phoenix, et Arenga. Elles sont bipennées chez Caryota.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille de palmiers contient presque tous les genres avec des feuilles palmées , à l'exception de Mauritia, Mauritiella et Lepidocaryum, tous de la sous-famille des Calamoideae, tribu des Lepidocaryeae, sous-tribu des Mauritiinae,. Cependant, tous les feuilles de palmier  « Coryphoidées » sont indupliquées (en forme de V)  (à l'exception de Guihaia), tandis que les palmiers de type « Calamoidées »  ont des feuilles redupliquées (en forme de V inversé, soit en &lt;A&gt;) . Des feuilles  pennées ne se trouvent  chez les Coryphoideae, pour Phoenix, et Arenga. Elles sont bipennées chez Caryota.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Coryphoideae est divisé en 8 tribus et 4 sous-tribus[3],[6],[7]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Coryphoideae est divisé en 8 tribus et 4 sous-tribus:
 Sabaleae
 Sabal
 Cryosophileae
@@ -605,7 +621,7 @@
 Lodoicea
 Borassodendron
 Borassus
-Le genre Sabinaria a été découvert et décrit après que la classification utilisée ici[3],[5] a été publiée, mais sa morphologie le place clairement dans la tribu des Cryosophileae[8]. Le genre Saribus a été séparé du genre Livistona[9], tandis que Lanonia a été séparé du genre Licuala[10], aussi, après la publication. La  tribu des Trachycarpeae a été initialement décrite comme tribu des « Livistoneae », mais le nom de Trachycarpeae était prioritaire. La classification de Baker &amp; Dransfield en 2016 résout tous ces éléments[11].
+Le genre Sabinaria a été découvert et décrit après que la classification utilisée ici, a été publiée, mais sa morphologie le place clairement dans la tribu des Cryosophileae. Le genre Saribus a été séparé du genre Livistona, tandis que Lanonia a été séparé du genre Licuala, aussi, après la publication. La  tribu des Trachycarpeae a été initialement décrite comme tribu des « Livistoneae », mais le nom de Trachycarpeae était prioritaire. La classification de Baker &amp; Dransfield en 2016 résout tous ces éléments.
 			Bismarckia nobilis, de la tribu des Borasseae.
 			Caryota maxima, de la tribu des Caryoteae
 			Kerriodoxa elegans, de la tribu des Chuniophoeniceae.
